--- a/Code/Results/Cases/Case_0_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_148/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09797847129605941</v>
+        <v>0.1532258774662978</v>
       </c>
       <c r="D2">
-        <v>0.03404928832366139</v>
+        <v>0.05151343658369001</v>
       </c>
       <c r="E2">
-        <v>0.05686945209533434</v>
+        <v>0.1081177584050153</v>
       </c>
       <c r="F2">
-        <v>0.9098673149566565</v>
+        <v>1.262987421358872</v>
       </c>
       <c r="G2">
-        <v>0.8399097438357188</v>
+        <v>1.141031977449174</v>
       </c>
       <c r="H2">
-        <v>0.5506748744721932</v>
+        <v>1.105117920401526</v>
       </c>
       <c r="I2">
-        <v>0.7742345587266612</v>
+        <v>1.22614164198621</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.131812718973379</v>
+        <v>1.299466841442097</v>
       </c>
       <c r="L2">
-        <v>0.06648716563568513</v>
+        <v>0.141449036860628</v>
       </c>
       <c r="M2">
-        <v>0.6934165436044495</v>
+        <v>0.4094407034417884</v>
       </c>
       <c r="N2">
-        <v>0.768025055333613</v>
+        <v>1.485015210462645</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08954565375510981</v>
+        <v>0.1517420198934047</v>
       </c>
       <c r="D3">
-        <v>0.03348139517496307</v>
+        <v>0.05127568612486044</v>
       </c>
       <c r="E3">
-        <v>0.05359892691974188</v>
+        <v>0.1079552272702813</v>
       </c>
       <c r="F3">
-        <v>0.8419792915086646</v>
+        <v>1.256789296655995</v>
       </c>
       <c r="G3">
-        <v>0.7783951422009494</v>
+        <v>1.136231794590458</v>
       </c>
       <c r="H3">
-        <v>0.530221676838778</v>
+        <v>1.108650299514665</v>
       </c>
       <c r="I3">
-        <v>0.7254941853053936</v>
+        <v>1.22422393723113</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.716373401314854</v>
+        <v>1.1825441993781</v>
       </c>
       <c r="L3">
-        <v>0.06419355647080138</v>
+        <v>0.14187178329313</v>
       </c>
       <c r="M3">
-        <v>0.6042819565947468</v>
+        <v>0.386067738871418</v>
       </c>
       <c r="N3">
-        <v>0.8082516976482594</v>
+        <v>1.501590782394082</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0844592913315978</v>
+        <v>0.1508882270461385</v>
       </c>
       <c r="D4">
-        <v>0.03313788842146437</v>
+        <v>0.05113230160958793</v>
       </c>
       <c r="E4">
-        <v>0.05167190931075361</v>
+        <v>0.1079021266124656</v>
       </c>
       <c r="F4">
-        <v>0.8023036133447192</v>
+        <v>1.253823749281494</v>
       </c>
       <c r="G4">
-        <v>0.7426994391764907</v>
+        <v>1.13410451246537</v>
       </c>
       <c r="H4">
-        <v>0.5188447701519863</v>
+        <v>1.111406002069444</v>
       </c>
       <c r="I4">
-        <v>0.69727485837155</v>
+        <v>1.22380469520931</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.46272684323975</v>
+        <v>1.111061978348999</v>
       </c>
       <c r="L4">
-        <v>0.0629054826193709</v>
+        <v>0.1421971039189707</v>
       </c>
       <c r="M4">
-        <v>0.5500131082491606</v>
+        <v>0.3718782068275743</v>
       </c>
       <c r="N4">
-        <v>0.8341651314819423</v>
+        <v>1.512342379987256</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08240796880890855</v>
+        <v>0.1505547509712244</v>
       </c>
       <c r="D5">
-        <v>0.03299915125468544</v>
+        <v>0.05107453497634395</v>
       </c>
       <c r="E5">
-        <v>0.05090585061720176</v>
+        <v>0.1078922392036041</v>
       </c>
       <c r="F5">
-        <v>0.7866042774332414</v>
+        <v>1.252826149171391</v>
       </c>
       <c r="G5">
-        <v>0.7286368632264697</v>
+        <v>1.133443329246717</v>
       </c>
       <c r="H5">
-        <v>0.5144882436189278</v>
+        <v>1.112676423478987</v>
       </c>
       <c r="I5">
-        <v>0.6861756794384846</v>
+        <v>1.223824249077026</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.359662629564951</v>
+        <v>1.082010927054284</v>
       </c>
       <c r="L5">
-        <v>0.06240918516051153</v>
+        <v>0.1423462069604966</v>
       </c>
       <c r="M5">
-        <v>0.5279988458026565</v>
+        <v>0.3661366662434844</v>
       </c>
       <c r="N5">
-        <v>0.8450210372073137</v>
+        <v>1.516868108061498</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08206859720860393</v>
+        <v>0.1505002516118239</v>
       </c>
       <c r="D6">
-        <v>0.03297618772599975</v>
+        <v>0.05106498328872178</v>
       </c>
       <c r="E6">
-        <v>0.05077977473661832</v>
+        <v>0.1078913074673533</v>
       </c>
       <c r="F6">
-        <v>0.7840247174270729</v>
+        <v>1.252673224514645</v>
       </c>
       <c r="G6">
-        <v>0.7263299327157142</v>
+        <v>1.133345949371531</v>
       </c>
       <c r="H6">
-        <v>0.5137812468631182</v>
+        <v>1.112896278523593</v>
       </c>
       <c r="I6">
-        <v>0.684356041432018</v>
+        <v>1.223838987840978</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.342565208991033</v>
+        <v>1.077191792037297</v>
       </c>
       <c r="L6">
-        <v>0.06232845722422908</v>
+        <v>0.1423719638670846</v>
       </c>
       <c r="M6">
-        <v>0.5243490590200395</v>
+        <v>0.3651857580053672</v>
       </c>
       <c r="N6">
-        <v>0.8468412665703013</v>
+        <v>1.517628321005329</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.084431541797926</v>
+        <v>0.1508836711003809</v>
       </c>
       <c r="D7">
-        <v>0.03313601239346653</v>
+        <v>0.05113151984740227</v>
       </c>
       <c r="E7">
-        <v>0.0516615016710773</v>
+        <v>0.1079019456723742</v>
       </c>
       <c r="F7">
-        <v>0.8020900344310888</v>
+        <v>1.253809441930798</v>
       </c>
       <c r="G7">
-        <v>0.742507876286254</v>
+        <v>1.134094763314025</v>
       </c>
       <c r="H7">
-        <v>0.5187849064517991</v>
+        <v>1.111422538543152</v>
       </c>
       <c r="I7">
-        <v>0.6971235866070913</v>
+        <v>1.223804188360013</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.461335752270344</v>
+        <v>1.110669866535943</v>
       </c>
       <c r="L7">
-        <v>0.06289867564233731</v>
+        <v>0.1421990478383961</v>
       </c>
       <c r="M7">
-        <v>0.5497158274279812</v>
+        <v>0.3718006089258239</v>
       </c>
       <c r="N7">
-        <v>0.834310351533194</v>
+        <v>1.512402831019759</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09505087857205297</v>
+        <v>0.15270237502844</v>
       </c>
       <c r="D8">
-        <v>0.03385236440704631</v>
+        <v>0.05143092811203687</v>
       </c>
       <c r="E8">
-        <v>0.0557242119516097</v>
+        <v>0.1080520319164577</v>
       </c>
       <c r="F8">
-        <v>0.8860203797919866</v>
+        <v>1.260675709614247</v>
       </c>
       <c r="G8">
-        <v>0.8182453587714917</v>
+        <v>1.139206362760234</v>
       </c>
       <c r="H8">
-        <v>0.5433665695727115</v>
+        <v>1.106214025874422</v>
       </c>
       <c r="I8">
-        <v>0.757056511287054</v>
+        <v>1.225322880414822</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.988232711670719</v>
+        <v>1.25908832976873</v>
       </c>
       <c r="L8">
-        <v>0.06567036971792817</v>
+        <v>0.1415811515282179</v>
       </c>
       <c r="M8">
-        <v>0.6625780895122091</v>
+        <v>0.4013482739233467</v>
       </c>
       <c r="N8">
-        <v>0.7816374181480832</v>
+        <v>1.490611304349073</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.116678124797005</v>
+        <v>0.1567219763817178</v>
       </c>
       <c r="D9">
-        <v>0.03530158996923305</v>
+        <v>0.05203821347408066</v>
       </c>
       <c r="E9">
-        <v>0.06439187070847296</v>
+        <v>0.1087165527450757</v>
       </c>
       <c r="F9">
-        <v>1.068290412271139</v>
+        <v>1.280825922865972</v>
       </c>
       <c r="G9">
-        <v>0.9850691087753916</v>
+        <v>1.155762115898469</v>
       </c>
       <c r="H9">
-        <v>0.6017916062554178</v>
+        <v>1.100662070864004</v>
       </c>
       <c r="I9">
-        <v>0.889537794167353</v>
+        <v>1.234331333427598</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.035924333285379</v>
+        <v>1.552562581090456</v>
       </c>
       <c r="L9">
-        <v>0.07213828789684129</v>
+        <v>0.1408913763324691</v>
       </c>
       <c r="M9">
-        <v>0.888289284697521</v>
+        <v>0.4605684357832018</v>
       </c>
       <c r="N9">
-        <v>0.6884285104785199</v>
+        <v>1.452433536957447</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1331745949408116</v>
+        <v>0.1599498425941164</v>
       </c>
       <c r="D10">
-        <v>0.03639927384687525</v>
+        <v>0.05249613355148952</v>
       </c>
       <c r="E10">
-        <v>0.07127350111294461</v>
+        <v>0.1094302749999443</v>
       </c>
       <c r="F10">
-        <v>1.215625437845375</v>
+        <v>1.299736733442572</v>
       </c>
       <c r="G10">
-        <v>1.12157107897562</v>
+        <v>1.171945925451979</v>
       </c>
       <c r="H10">
-        <v>0.6522235332931245</v>
+        <v>1.099434697772267</v>
       </c>
       <c r="I10">
-        <v>0.9981066350110552</v>
+        <v>1.244648432112768</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.819162071835308</v>
+        <v>1.769648325423191</v>
       </c>
       <c r="L10">
-        <v>0.07763842470914994</v>
+        <v>0.1407032242779351</v>
       </c>
       <c r="M10">
-        <v>1.057920723678976</v>
+        <v>0.5048549064961563</v>
       </c>
       <c r="N10">
-        <v>0.626765926475759</v>
+        <v>1.427160781253363</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.140839776227395</v>
+        <v>0.1614776261225188</v>
       </c>
       <c r="D11">
-        <v>0.03690743582506784</v>
+        <v>0.05270689806604523</v>
       </c>
       <c r="E11">
-        <v>0.07453670110685096</v>
+        <v>0.1098039084767777</v>
       </c>
       <c r="F11">
-        <v>1.286212792789144</v>
+        <v>1.309238339636011</v>
       </c>
       <c r="G11">
-        <v>1.187376470683461</v>
+        <v>1.180189815872268</v>
       </c>
       <c r="H11">
-        <v>0.6771093812032518</v>
+        <v>1.099497752449167</v>
       </c>
       <c r="I11">
-        <v>1.050455979467486</v>
+        <v>1.250150101924518</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.179564260671611</v>
+        <v>1.868725205440683</v>
       </c>
       <c r="L11">
-        <v>0.08033201126868761</v>
+        <v>0.1406869289434596</v>
       </c>
       <c r="M11">
-        <v>1.136192800568828</v>
+        <v>0.5251708601221594</v>
       </c>
       <c r="N11">
-        <v>0.6003589838401311</v>
+        <v>1.416266400726386</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1437681118912195</v>
+        <v>0.1620646669828432</v>
       </c>
       <c r="D12">
-        <v>0.03710129621664393</v>
+        <v>0.05278705240981907</v>
       </c>
       <c r="E12">
-        <v>0.07579339431455168</v>
+        <v>0.1099524283879809</v>
       </c>
       <c r="F12">
-        <v>1.313514217513458</v>
+        <v>1.312966113734348</v>
       </c>
       <c r="G12">
-        <v>1.212891362831982</v>
+        <v>1.183438991212654</v>
       </c>
       <c r="H12">
-        <v>0.6868413792213062</v>
+        <v>1.09961114612031</v>
       </c>
       <c r="I12">
-        <v>1.07075276296122</v>
+        <v>1.252350043656264</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.316734492004798</v>
+        <v>1.906289026409922</v>
       </c>
       <c r="L12">
-        <v>0.08138220205895408</v>
+        <v>0.1406907300655504</v>
       </c>
       <c r="M12">
-        <v>1.166016635227649</v>
+        <v>0.532888301224844</v>
       </c>
       <c r="N12">
-        <v>0.5906110394507493</v>
+        <v>1.412227634621338</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1431362561345111</v>
+        <v>0.1619378597304149</v>
       </c>
       <c r="D13">
-        <v>0.03705947841891444</v>
+        <v>0.05276977467504551</v>
       </c>
       <c r="E13">
-        <v>0.07552177720566888</v>
+        <v>0.109920129282159</v>
       </c>
       <c r="F13">
-        <v>1.307607949443351</v>
+        <v>1.312157494279191</v>
       </c>
       <c r="G13">
-        <v>1.207368719821005</v>
+        <v>1.182733547876779</v>
       </c>
       <c r="H13">
-        <v>0.6847312229385807</v>
+        <v>1.099582740922841</v>
       </c>
       <c r="I13">
-        <v>1.066359637503766</v>
+        <v>1.251871056589238</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.287159815795746</v>
+        <v>1.898196974496386</v>
       </c>
       <c r="L13">
-        <v>0.08115463737873085</v>
+        <v>0.1406894678109865</v>
       </c>
       <c r="M13">
-        <v>1.159584938478289</v>
+        <v>0.5312251375333972</v>
       </c>
       <c r="N13">
-        <v>0.5926989744227882</v>
+        <v>1.413093597747711</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1410801616134592</v>
+        <v>0.1615257521586102</v>
       </c>
       <c r="D14">
-        <v>0.03692335514184819</v>
+        <v>0.05271348560973976</v>
       </c>
       <c r="E14">
-        <v>0.07463965780766912</v>
+        <v>0.1098159863866464</v>
       </c>
       <c r="F14">
-        <v>1.288447085477443</v>
+        <v>1.30954242344967</v>
       </c>
       <c r="G14">
-        <v>1.189463277263172</v>
+        <v>1.180454570938593</v>
       </c>
       <c r="H14">
-        <v>0.6779036863408976</v>
+        <v>1.099505286448959</v>
       </c>
       <c r="I14">
-        <v>1.052116036339612</v>
+        <v>1.250328754108352</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.190834805029624</v>
+        <v>1.871814696039394</v>
       </c>
       <c r="L14">
-        <v>0.08041779008235039</v>
+        <v>0.1406870417725514</v>
       </c>
       <c r="M14">
-        <v>1.138642588914792</v>
+        <v>0.5258052941081246</v>
       </c>
       <c r="N14">
-        <v>0.5995518749190225</v>
+        <v>1.415932390908509</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1398241710881507</v>
+        <v>0.1612744304292022</v>
       </c>
       <c r="D15">
-        <v>0.03684016726879946</v>
+        <v>0.05267905121232275</v>
       </c>
       <c r="E15">
-        <v>0.07410212724281706</v>
+        <v>0.1097531115576302</v>
       </c>
       <c r="F15">
-        <v>1.276786778031493</v>
+        <v>1.307957524073046</v>
       </c>
       <c r="G15">
-        <v>1.178575219120461</v>
+        <v>1.179075239696601</v>
       </c>
       <c r="H15">
-        <v>0.6737626664677521</v>
+        <v>1.099469505807718</v>
       </c>
       <c r="I15">
-        <v>1.043454530768045</v>
+        <v>1.249399241322308</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.131926547374462</v>
+        <v>1.855660693214929</v>
       </c>
       <c r="L15">
-        <v>0.07997046376672046</v>
+        <v>0.140686854593838</v>
       </c>
       <c r="M15">
-        <v>1.125839522403027</v>
+        <v>0.522488633454941</v>
       </c>
       <c r="N15">
-        <v>0.6037827469255816</v>
+        <v>1.417682527167337</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1326771084116416</v>
+        <v>0.1598511903491726</v>
       </c>
       <c r="D16">
-        <v>0.03636625500889679</v>
+        <v>0.05248240807723903</v>
       </c>
       <c r="E16">
-        <v>0.07106307295651604</v>
+        <v>0.1094068417217713</v>
       </c>
       <c r="F16">
-        <v>1.211089027682362</v>
+        <v>1.299133909332198</v>
       </c>
       <c r="G16">
-        <v>1.117350393643818</v>
+        <v>1.17142496232924</v>
       </c>
       <c r="H16">
-        <v>0.6506386988206714</v>
+        <v>1.099443094701115</v>
       </c>
       <c r="I16">
-        <v>0.9947490199135842</v>
+        <v>1.244305180201053</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.795700152270115</v>
+        <v>1.763179845377294</v>
       </c>
       <c r="L16">
-        <v>0.07746646753487596</v>
+        <v>0.1407056842331968</v>
       </c>
       <c r="M16">
-        <v>1.052829786094939</v>
+        <v>0.5035306120780376</v>
       </c>
       <c r="N16">
-        <v>0.6285260452487655</v>
+        <v>1.427884882127664</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1283355716303589</v>
+        <v>0.1589932660782409</v>
       </c>
       <c r="D17">
-        <v>0.03607789138299466</v>
+        <v>0.05236239493830652</v>
       </c>
       <c r="E17">
-        <v>0.06923400634201471</v>
+        <v>0.1092069505645412</v>
       </c>
       <c r="F17">
-        <v>1.171738723754274</v>
+        <v>1.293951477681702</v>
       </c>
       <c r="G17">
-        <v>1.080783724232802</v>
+        <v>1.16695803405959</v>
       </c>
       <c r="H17">
-        <v>0.6369704295806429</v>
+        <v>1.099586159629411</v>
       </c>
       <c r="I17">
-        <v>0.9656605246608194</v>
+        <v>1.241387420043196</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.590557853500059</v>
+        <v>1.70652800701771</v>
       </c>
       <c r="L17">
-        <v>0.07598121435964345</v>
+        <v>0.140734988973243</v>
       </c>
       <c r="M17">
-        <v>1.008340897768427</v>
+        <v>0.491943838831844</v>
       </c>
       <c r="N17">
-        <v>0.6441367953168999</v>
+        <v>1.434298024978268</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1258534082307676</v>
+        <v>0.1585054051944326</v>
       </c>
       <c r="D18">
-        <v>0.03591285122953991</v>
+        <v>0.05229359818689261</v>
       </c>
       <c r="E18">
-        <v>0.06819434335437791</v>
+        <v>0.1090965869926563</v>
       </c>
       <c r="F18">
-        <v>1.149437082123299</v>
+        <v>1.291055269633205</v>
       </c>
       <c r="G18">
-        <v>1.060096685548885</v>
+        <v>1.16447173815466</v>
       </c>
       <c r="H18">
-        <v>0.6292899228130722</v>
+        <v>1.099726925468275</v>
       </c>
       <c r="I18">
-        <v>0.9492051915956097</v>
+        <v>1.239785268905905</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.472944896984927</v>
+        <v>1.673973872811644</v>
       </c>
       <c r="L18">
-        <v>0.07514479360116155</v>
+        <v>0.1407583663097043</v>
       </c>
       <c r="M18">
-        <v>0.9828545359173475</v>
+        <v>0.4852954283627966</v>
       </c>
       <c r="N18">
-        <v>0.6532693940504828</v>
+        <v>1.43804338302251</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1250154875435499</v>
+        <v>0.1583411859852788</v>
       </c>
       <c r="D19">
-        <v>0.03585710761548455</v>
+        <v>0.0522703448967512</v>
       </c>
       <c r="E19">
-        <v>0.06784440013241166</v>
+        <v>0.1090600115206861</v>
       </c>
       <c r="F19">
-        <v>1.141941372117557</v>
+        <v>1.290089178047552</v>
       </c>
       <c r="G19">
-        <v>1.053149881483748</v>
+        <v>1.163644152081019</v>
       </c>
       <c r="H19">
-        <v>0.6267197107779907</v>
+        <v>1.099784625276897</v>
       </c>
       <c r="I19">
-        <v>0.9436796571460349</v>
+        <v>1.239255862500642</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.433185343813022</v>
+        <v>1.662956870975052</v>
       </c>
       <c r="L19">
-        <v>0.07486458621438885</v>
+        <v>0.1407674014241778</v>
       </c>
       <c r="M19">
-        <v>0.9742421705707187</v>
+        <v>0.4830471437703707</v>
       </c>
       <c r="N19">
-        <v>0.6563874865397779</v>
+        <v>1.439321230593123</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1287961680335172</v>
+        <v>0.1590840148728034</v>
       </c>
       <c r="D20">
-        <v>0.03610850233178908</v>
+        <v>0.05237514664506548</v>
       </c>
       <c r="E20">
-        <v>0.06942742031626281</v>
+        <v>0.1092277524049479</v>
       </c>
       <c r="F20">
-        <v>1.175892899615548</v>
+        <v>1.294494398423694</v>
       </c>
       <c r="G20">
-        <v>1.08464015441298</v>
+        <v>1.167424955546991</v>
       </c>
       <c r="H20">
-        <v>0.6384064954029895</v>
+        <v>1.099564876637444</v>
       </c>
       <c r="I20">
-        <v>0.9687281911217553</v>
+        <v>1.24169014547752</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.612355608061307</v>
+        <v>1.712555541775316</v>
       </c>
       <c r="L20">
-        <v>0.07613745550361273</v>
+        <v>0.1407311943776435</v>
       </c>
       <c r="M20">
-        <v>1.013066037819975</v>
+        <v>0.493175616573204</v>
       </c>
       <c r="N20">
-        <v>0.6424589886906631</v>
+        <v>1.43360946737954</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1416833673744975</v>
+        <v>0.1616465677135466</v>
       </c>
       <c r="D21">
-        <v>0.03696329759830874</v>
+        <v>0.05273000986364451</v>
       </c>
       <c r="E21">
-        <v>0.07489817194444015</v>
+        <v>0.1098463848604716</v>
       </c>
       <c r="F21">
-        <v>1.294059086858837</v>
+        <v>1.310307008930351</v>
       </c>
       <c r="G21">
-        <v>1.194705843627787</v>
+        <v>1.181120499569289</v>
       </c>
       <c r="H21">
-        <v>0.6799004908459381</v>
+        <v>1.099525605968495</v>
       </c>
       <c r="I21">
-        <v>1.056286483894297</v>
+        <v>1.250778599126718</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.219108091707938</v>
+        <v>1.879562581944697</v>
       </c>
       <c r="L21">
-        <v>0.08063337843378093</v>
+        <v>0.1406874836684651</v>
       </c>
       <c r="M21">
-        <v>1.144788663723247</v>
+        <v>0.5273965773906895</v>
       </c>
       <c r="N21">
-        <v>0.5975320484204829</v>
+        <v>1.415096214829717</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1502570459640822</v>
+        <v>0.1633708838963202</v>
       </c>
       <c r="D22">
-        <v>0.03753038905225026</v>
+        <v>0.05296392450733478</v>
       </c>
       <c r="E22">
-        <v>0.07859698285872341</v>
+        <v>0.1102916876333282</v>
       </c>
       <c r="F22">
-        <v>1.37465027401133</v>
+        <v>1.32139779361458</v>
       </c>
       <c r="G22">
-        <v>1.270146279678329</v>
+        <v>1.190814149516086</v>
       </c>
       <c r="H22">
-        <v>0.7088313584337982</v>
+        <v>1.10002178554717</v>
       </c>
       <c r="I22">
-        <v>1.116294502229479</v>
+        <v>1.257398097081349</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.619755095301912</v>
+        <v>1.98897643798847</v>
       </c>
       <c r="L22">
-        <v>0.08374908801198444</v>
+        <v>0.1407170430192153</v>
       </c>
       <c r="M22">
-        <v>1.231962203898618</v>
+        <v>0.5499031005777795</v>
       </c>
       <c r="N22">
-        <v>0.5696455267351226</v>
+        <v>1.403502128780033</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1456663725291492</v>
+        <v>0.1624460644083285</v>
       </c>
       <c r="D23">
-        <v>0.03722688920155548</v>
+        <v>0.05283890110720435</v>
       </c>
       <c r="E23">
-        <v>0.07661089498924767</v>
+        <v>0.110050272786669</v>
       </c>
       <c r="F23">
-        <v>1.331308578219293</v>
+        <v>1.315409079803146</v>
       </c>
       <c r="G23">
-        <v>1.229539333077611</v>
+        <v>1.185572301732748</v>
       </c>
       <c r="H23">
-        <v>0.6932143935976001</v>
+        <v>1.099709162645553</v>
       </c>
       <c r="I23">
-        <v>1.083995530858758</v>
+        <v>1.253802845052093</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.405510256543664</v>
+        <v>1.930556261825757</v>
       </c>
       <c r="L23">
-        <v>0.08206900865687317</v>
+        <v>0.1406959456117818</v>
       </c>
       <c r="M23">
-        <v>1.185327902155436</v>
+        <v>0.5378780924832256</v>
       </c>
       <c r="N23">
-        <v>0.5843885778196309</v>
+        <v>1.40964383696744</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1285878894699835</v>
+        <v>0.1590429706102157</v>
       </c>
       <c r="D24">
-        <v>0.03609466081661239</v>
+        <v>0.05236938097368338</v>
       </c>
       <c r="E24">
-        <v>0.06933994096030816</v>
+        <v>0.1092183336995731</v>
       </c>
       <c r="F24">
-        <v>1.174013800102216</v>
+        <v>1.294248684692846</v>
       </c>
       <c r="G24">
-        <v>1.082895621567303</v>
+        <v>1.167213605577899</v>
       </c>
       <c r="H24">
-        <v>0.6377566991120318</v>
+        <v>1.0995743164071</v>
       </c>
       <c r="I24">
-        <v>0.9673404677939885</v>
+        <v>1.241553048747306</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.602499835260573</v>
+        <v>1.70983044414487</v>
       </c>
       <c r="L24">
-        <v>0.076066764660915</v>
+        <v>0.1407328895753537</v>
       </c>
       <c r="M24">
-        <v>1.010929520743474</v>
+        <v>0.4926186894122253</v>
       </c>
       <c r="N24">
-        <v>0.643217034796546</v>
+        <v>1.433920582487779</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1107298688303899</v>
+        <v>0.1555862212261303</v>
       </c>
       <c r="D25">
-        <v>0.03490423711183865</v>
+        <v>0.05187182594049489</v>
       </c>
       <c r="E25">
-        <v>0.0619635241912917</v>
+        <v>0.1084971694954042</v>
       </c>
       <c r="F25">
-        <v>1.01682877826741</v>
+        <v>1.274655855017969</v>
       </c>
       <c r="G25">
-        <v>0.937706358265217</v>
+        <v>1.150580113386425</v>
       </c>
       <c r="H25">
-        <v>0.5847665184785313</v>
+        <v>1.101663945160368</v>
       </c>
       <c r="I25">
-        <v>0.8518889831035352</v>
+        <v>1.231246421502377</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.750488921364081</v>
+        <v>1.472911236598691</v>
       </c>
       <c r="L25">
-        <v>0.07026632065340266</v>
+        <v>0.1410220581960431</v>
       </c>
       <c r="M25">
-        <v>0.8266480201130975</v>
+        <v>0.4444112083560015</v>
       </c>
       <c r="N25">
-        <v>0.7124986995156384</v>
+        <v>1.462274041405969</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_148/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1532258774662978</v>
+        <v>0.09797847129631521</v>
       </c>
       <c r="D2">
-        <v>0.05151343658369001</v>
+        <v>0.0340492883236081</v>
       </c>
       <c r="E2">
-        <v>0.1081177584050153</v>
+        <v>0.05686945209533079</v>
       </c>
       <c r="F2">
-        <v>1.262987421358872</v>
+        <v>0.9098673149566565</v>
       </c>
       <c r="G2">
-        <v>1.141031977449174</v>
+        <v>0.8399097438356478</v>
       </c>
       <c r="H2">
-        <v>1.105117920401526</v>
+        <v>0.5506748744720795</v>
       </c>
       <c r="I2">
-        <v>1.22614164198621</v>
+        <v>0.7742345587266612</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.299466841442097</v>
+        <v>3.131812718973435</v>
       </c>
       <c r="L2">
-        <v>0.141449036860628</v>
+        <v>0.06648716563568513</v>
       </c>
       <c r="M2">
-        <v>0.4094407034417884</v>
+        <v>0.6934165436044637</v>
       </c>
       <c r="N2">
-        <v>1.485015210462645</v>
+        <v>0.7680250553335455</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1517420198934047</v>
+        <v>0.08954565375536561</v>
       </c>
       <c r="D3">
-        <v>0.05127568612486044</v>
+        <v>0.03348139517502347</v>
       </c>
       <c r="E3">
-        <v>0.1079552272702813</v>
+        <v>0.05359892691972412</v>
       </c>
       <c r="F3">
-        <v>1.256789296655995</v>
+        <v>0.8419792915086646</v>
       </c>
       <c r="G3">
-        <v>1.136231794590458</v>
+        <v>0.7783951422009778</v>
       </c>
       <c r="H3">
-        <v>1.108650299514665</v>
+        <v>0.5302216768387922</v>
       </c>
       <c r="I3">
-        <v>1.22422393723113</v>
+        <v>0.7254941853053936</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.1825441993781</v>
+        <v>2.716373401314826</v>
       </c>
       <c r="L3">
-        <v>0.14187178329313</v>
+        <v>0.06419355647087244</v>
       </c>
       <c r="M3">
-        <v>0.386067738871418</v>
+        <v>0.6042819565947468</v>
       </c>
       <c r="N3">
-        <v>1.501590782394082</v>
+        <v>0.8082516976482736</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1508882270461385</v>
+        <v>0.08445929133171859</v>
       </c>
       <c r="D4">
-        <v>0.05113230160958793</v>
+        <v>0.03313788842169885</v>
       </c>
       <c r="E4">
-        <v>0.1079021266124656</v>
+        <v>0.05167190931073584</v>
       </c>
       <c r="F4">
-        <v>1.253823749281494</v>
+        <v>0.8023036133447334</v>
       </c>
       <c r="G4">
-        <v>1.13410451246537</v>
+        <v>0.7426994391765334</v>
       </c>
       <c r="H4">
-        <v>1.111406002069444</v>
+        <v>0.5188447701521142</v>
       </c>
       <c r="I4">
-        <v>1.22380469520931</v>
+        <v>0.6972748583715855</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.111061978348999</v>
+        <v>2.462726843239636</v>
       </c>
       <c r="L4">
-        <v>0.1421971039189707</v>
+        <v>0.06290548261934248</v>
       </c>
       <c r="M4">
-        <v>0.3718782068275743</v>
+        <v>0.5500131082491606</v>
       </c>
       <c r="N4">
-        <v>1.512342379987256</v>
+        <v>0.8341651314820062</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1505547509712244</v>
+        <v>0.08240796880868118</v>
       </c>
       <c r="D5">
-        <v>0.05107453497634395</v>
+        <v>0.03299915125475295</v>
       </c>
       <c r="E5">
-        <v>0.1078922392036041</v>
+        <v>0.050905850617184</v>
       </c>
       <c r="F5">
-        <v>1.252826149171391</v>
+        <v>0.7866042774332698</v>
       </c>
       <c r="G5">
-        <v>1.133443329246717</v>
+        <v>0.7286368632264555</v>
       </c>
       <c r="H5">
-        <v>1.112676423478987</v>
+        <v>0.514488243618942</v>
       </c>
       <c r="I5">
-        <v>1.223824249077026</v>
+        <v>0.6861756794384988</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.082010927054284</v>
+        <v>2.35966262956498</v>
       </c>
       <c r="L5">
-        <v>0.1423462069604966</v>
+        <v>0.06240918516062521</v>
       </c>
       <c r="M5">
-        <v>0.3661366662434844</v>
+        <v>0.5279988458026494</v>
       </c>
       <c r="N5">
-        <v>1.516868108061498</v>
+        <v>0.8450210372073244</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1505002516118239</v>
+        <v>0.08206859720849025</v>
       </c>
       <c r="D6">
-        <v>0.05106498328872178</v>
+        <v>0.03297618772577238</v>
       </c>
       <c r="E6">
-        <v>0.1078913074673533</v>
+        <v>0.05077977473663253</v>
       </c>
       <c r="F6">
-        <v>1.252673224514645</v>
+        <v>0.7840247174270658</v>
       </c>
       <c r="G6">
-        <v>1.133345949371531</v>
+        <v>0.726329932715629</v>
       </c>
       <c r="H6">
-        <v>1.112896278523593</v>
+        <v>0.5137812468631182</v>
       </c>
       <c r="I6">
-        <v>1.223838987840978</v>
+        <v>0.6843560414320038</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.077191792037297</v>
+        <v>2.342565208990948</v>
       </c>
       <c r="L6">
-        <v>0.1423719638670846</v>
+        <v>0.06232845722421132</v>
       </c>
       <c r="M6">
-        <v>0.3651857580053672</v>
+        <v>0.5243490590200253</v>
       </c>
       <c r="N6">
-        <v>1.517628321005329</v>
+        <v>0.8468412665702409</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1508836711003809</v>
+        <v>0.08443154179806811</v>
       </c>
       <c r="D7">
-        <v>0.05113151984740227</v>
+        <v>0.03313601239363706</v>
       </c>
       <c r="E7">
-        <v>0.1079019456723742</v>
+        <v>0.05166150167108441</v>
       </c>
       <c r="F7">
-        <v>1.253809441930798</v>
+        <v>0.8020900344310746</v>
       </c>
       <c r="G7">
-        <v>1.134094763314025</v>
+        <v>0.742507876286254</v>
       </c>
       <c r="H7">
-        <v>1.111422538543152</v>
+        <v>0.5187849064516854</v>
       </c>
       <c r="I7">
-        <v>1.223804188360013</v>
+        <v>0.6971235866070629</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.110669866535943</v>
+        <v>2.461335752270173</v>
       </c>
       <c r="L7">
-        <v>0.1421990478383961</v>
+        <v>0.06289867564238349</v>
       </c>
       <c r="M7">
-        <v>0.3718006089258239</v>
+        <v>0.5497158274279954</v>
       </c>
       <c r="N7">
-        <v>1.512402831019759</v>
+        <v>0.8343103515331904</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.15270237502844</v>
+        <v>0.09505087857206718</v>
       </c>
       <c r="D8">
-        <v>0.05143092811203687</v>
+        <v>0.03385236440686867</v>
       </c>
       <c r="E8">
-        <v>0.1080520319164577</v>
+        <v>0.05572421195160793</v>
       </c>
       <c r="F8">
-        <v>1.260675709614247</v>
+        <v>0.8860203797919866</v>
       </c>
       <c r="G8">
-        <v>1.139206362760234</v>
+        <v>0.8182453587715628</v>
       </c>
       <c r="H8">
-        <v>1.106214025874422</v>
+        <v>0.5433665695727115</v>
       </c>
       <c r="I8">
-        <v>1.225322880414822</v>
+        <v>0.7570565112870611</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.25908832976873</v>
+        <v>2.988232711670719</v>
       </c>
       <c r="L8">
-        <v>0.1415811515282179</v>
+        <v>0.06567036971786067</v>
       </c>
       <c r="M8">
-        <v>0.4013482739233467</v>
+        <v>0.6625780895122091</v>
       </c>
       <c r="N8">
-        <v>1.490611304349073</v>
+        <v>0.7816374181480228</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1567219763817178</v>
+        <v>0.1166781247968913</v>
       </c>
       <c r="D9">
-        <v>0.05203821347408066</v>
+        <v>0.03530158996938226</v>
       </c>
       <c r="E9">
-        <v>0.1087165527450757</v>
+        <v>0.06439187070848718</v>
       </c>
       <c r="F9">
-        <v>1.280825922865972</v>
+        <v>1.068290412271153</v>
       </c>
       <c r="G9">
-        <v>1.155762115898469</v>
+        <v>0.9850691087753489</v>
       </c>
       <c r="H9">
-        <v>1.100662070864004</v>
+        <v>0.6017916062554178</v>
       </c>
       <c r="I9">
-        <v>1.234331333427598</v>
+        <v>0.8895377941673459</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.552562581090456</v>
+        <v>4.035924333285266</v>
       </c>
       <c r="L9">
-        <v>0.1408913763324691</v>
+        <v>0.07213828789678445</v>
       </c>
       <c r="M9">
-        <v>0.4605684357832018</v>
+        <v>0.8882892846975139</v>
       </c>
       <c r="N9">
-        <v>1.452433536957447</v>
+        <v>0.6884285104785199</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1599498425941164</v>
+        <v>0.133174594940499</v>
       </c>
       <c r="D10">
-        <v>0.05249613355148952</v>
+        <v>0.03639927384687169</v>
       </c>
       <c r="E10">
-        <v>0.1094302749999443</v>
+        <v>0.07127350111295883</v>
       </c>
       <c r="F10">
-        <v>1.299736733442572</v>
+        <v>1.215625437845361</v>
       </c>
       <c r="G10">
-        <v>1.171945925451979</v>
+        <v>1.121571078975705</v>
       </c>
       <c r="H10">
-        <v>1.099434697772267</v>
+        <v>0.6522235332932382</v>
       </c>
       <c r="I10">
-        <v>1.244648432112768</v>
+        <v>0.9981066350110694</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.769648325423191</v>
+        <v>4.819162071835365</v>
       </c>
       <c r="L10">
-        <v>0.1407032242779351</v>
+        <v>0.077638424709221</v>
       </c>
       <c r="M10">
-        <v>0.5048549064961563</v>
+        <v>1.057920723678968</v>
       </c>
       <c r="N10">
-        <v>1.427160781253363</v>
+        <v>0.6267659264757057</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1614776261225188</v>
+        <v>0.1408397762272244</v>
       </c>
       <c r="D11">
-        <v>0.05270689806604523</v>
+        <v>0.03690743582499323</v>
       </c>
       <c r="E11">
-        <v>0.1098039084767777</v>
+        <v>0.07453670110683674</v>
       </c>
       <c r="F11">
-        <v>1.309238339636011</v>
+        <v>1.286212792789144</v>
       </c>
       <c r="G11">
-        <v>1.180189815872268</v>
+        <v>1.187376470683461</v>
       </c>
       <c r="H11">
-        <v>1.099497752449167</v>
+        <v>0.6771093812032518</v>
       </c>
       <c r="I11">
-        <v>1.250150101924518</v>
+        <v>1.0504559794675</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.868725205440683</v>
+        <v>5.179564260671611</v>
       </c>
       <c r="L11">
-        <v>0.1406869289434596</v>
+        <v>0.0803320112688084</v>
       </c>
       <c r="M11">
-        <v>0.5251708601221594</v>
+        <v>1.13619280056885</v>
       </c>
       <c r="N11">
-        <v>1.416266400726386</v>
+        <v>0.6003589838401382</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1620646669828432</v>
+        <v>0.1437681118913474</v>
       </c>
       <c r="D12">
-        <v>0.05278705240981907</v>
+        <v>0.03710129621683578</v>
       </c>
       <c r="E12">
-        <v>0.1099524283879809</v>
+        <v>0.07579339431455523</v>
       </c>
       <c r="F12">
-        <v>1.312966113734348</v>
+        <v>1.313514217513443</v>
       </c>
       <c r="G12">
-        <v>1.183438991212654</v>
+        <v>1.212891362832011</v>
       </c>
       <c r="H12">
-        <v>1.09961114612031</v>
+        <v>0.6868413792211925</v>
       </c>
       <c r="I12">
-        <v>1.252350043656264</v>
+        <v>1.07075276296122</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.906289026409922</v>
+        <v>5.316734492004741</v>
       </c>
       <c r="L12">
-        <v>0.1406907300655504</v>
+        <v>0.08138220205899671</v>
       </c>
       <c r="M12">
-        <v>0.532888301224844</v>
+        <v>1.166016635227663</v>
       </c>
       <c r="N12">
-        <v>1.412227634621338</v>
+        <v>0.5906110394507422</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1619378597304149</v>
+        <v>0.1431362561343406</v>
       </c>
       <c r="D13">
-        <v>0.05276977467504551</v>
+        <v>0.03705947841891444</v>
       </c>
       <c r="E13">
-        <v>0.109920129282159</v>
+        <v>0.07552177720566888</v>
       </c>
       <c r="F13">
-        <v>1.312157494279191</v>
+        <v>1.307607949443366</v>
       </c>
       <c r="G13">
-        <v>1.182733547876779</v>
+        <v>1.207368719821034</v>
       </c>
       <c r="H13">
-        <v>1.099582740922841</v>
+        <v>0.6847312229386944</v>
       </c>
       <c r="I13">
-        <v>1.251871056589238</v>
+        <v>1.06635963750378</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.898196974496386</v>
+        <v>5.287159815795576</v>
       </c>
       <c r="L13">
-        <v>0.1406894678109865</v>
+        <v>0.08115463737870954</v>
       </c>
       <c r="M13">
-        <v>0.5312251375333972</v>
+        <v>1.159584938478289</v>
       </c>
       <c r="N13">
-        <v>1.413093597747711</v>
+        <v>0.5926989744227882</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1615257521586102</v>
+        <v>0.141080161613047</v>
       </c>
       <c r="D14">
-        <v>0.05271348560973976</v>
+        <v>0.03692335514197609</v>
       </c>
       <c r="E14">
-        <v>0.1098159863866464</v>
+        <v>0.07463965780764781</v>
       </c>
       <c r="F14">
-        <v>1.30954242344967</v>
+        <v>1.288447085477443</v>
       </c>
       <c r="G14">
-        <v>1.180454570938593</v>
+        <v>1.189463277263258</v>
       </c>
       <c r="H14">
-        <v>1.099505286448959</v>
+        <v>0.6779036863408976</v>
       </c>
       <c r="I14">
-        <v>1.250328754108352</v>
+        <v>1.052116036339626</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.871814696039394</v>
+        <v>5.190834805029681</v>
       </c>
       <c r="L14">
-        <v>0.1406870417725514</v>
+        <v>0.08041779008247829</v>
       </c>
       <c r="M14">
-        <v>0.5258052941081246</v>
+        <v>1.138642588914777</v>
       </c>
       <c r="N14">
-        <v>1.415932390908509</v>
+        <v>0.5995518749189728</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1612744304292022</v>
+        <v>0.1398241710882786</v>
       </c>
       <c r="D15">
-        <v>0.05267905121232275</v>
+        <v>0.03684016726880657</v>
       </c>
       <c r="E15">
-        <v>0.1097531115576302</v>
+        <v>0.07410212724278153</v>
       </c>
       <c r="F15">
-        <v>1.307957524073046</v>
+        <v>1.276786778031521</v>
       </c>
       <c r="G15">
-        <v>1.179075239696601</v>
+        <v>1.178575219120489</v>
       </c>
       <c r="H15">
-        <v>1.099469505807718</v>
+        <v>0.6737626664676384</v>
       </c>
       <c r="I15">
-        <v>1.249399241322308</v>
+        <v>1.043454530768031</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.855660693214929</v>
+        <v>5.131926547374462</v>
       </c>
       <c r="L15">
-        <v>0.140686854593838</v>
+        <v>0.0799704637666494</v>
       </c>
       <c r="M15">
-        <v>0.522488633454941</v>
+        <v>1.125839522403034</v>
       </c>
       <c r="N15">
-        <v>1.417682527167337</v>
+        <v>0.6037827469255959</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1598511903491726</v>
+        <v>0.1326771084116558</v>
       </c>
       <c r="D16">
-        <v>0.05248240807723903</v>
+        <v>0.03636625500881863</v>
       </c>
       <c r="E16">
-        <v>0.1094068417217713</v>
+        <v>0.07106307295650183</v>
       </c>
       <c r="F16">
-        <v>1.299133909332198</v>
+        <v>1.211089027682377</v>
       </c>
       <c r="G16">
-        <v>1.17142496232924</v>
+        <v>1.117350393643875</v>
       </c>
       <c r="H16">
-        <v>1.099443094701115</v>
+        <v>0.6506386988205577</v>
       </c>
       <c r="I16">
-        <v>1.244305180201053</v>
+        <v>0.9947490199135984</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.763179845377294</v>
+        <v>4.795700152270058</v>
       </c>
       <c r="L16">
-        <v>0.1407056842331968</v>
+        <v>0.07746646753485464</v>
       </c>
       <c r="M16">
-        <v>0.5035306120780376</v>
+        <v>1.052829786094961</v>
       </c>
       <c r="N16">
-        <v>1.427884882127664</v>
+        <v>0.6285260452487549</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1589932660782409</v>
+        <v>0.1283355716304015</v>
       </c>
       <c r="D17">
-        <v>0.05236239493830652</v>
+        <v>0.03607789138298756</v>
       </c>
       <c r="E17">
-        <v>0.1092069505645412</v>
+        <v>0.06923400634203247</v>
       </c>
       <c r="F17">
-        <v>1.293951477681702</v>
+        <v>1.171738723754274</v>
       </c>
       <c r="G17">
-        <v>1.16695803405959</v>
+        <v>1.080783724232873</v>
       </c>
       <c r="H17">
-        <v>1.099586159629411</v>
+        <v>0.6369704295805292</v>
       </c>
       <c r="I17">
-        <v>1.241387420043196</v>
+        <v>0.9656605246608478</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.70652800701771</v>
+        <v>4.590557853499888</v>
       </c>
       <c r="L17">
-        <v>0.140734988973243</v>
+        <v>0.07598121435962213</v>
       </c>
       <c r="M17">
-        <v>0.491943838831844</v>
+        <v>1.00834089776842</v>
       </c>
       <c r="N17">
-        <v>1.434298024978268</v>
+        <v>0.6441367953168999</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1585054051944326</v>
+        <v>0.1258534082306113</v>
       </c>
       <c r="D18">
-        <v>0.05229359818689261</v>
+        <v>0.03591285122953636</v>
       </c>
       <c r="E18">
-        <v>0.1090965869926563</v>
+        <v>0.06819434335437791</v>
       </c>
       <c r="F18">
-        <v>1.291055269633205</v>
+        <v>1.149437082123299</v>
       </c>
       <c r="G18">
-        <v>1.16447173815466</v>
+        <v>1.060096685548956</v>
       </c>
       <c r="H18">
-        <v>1.099726925468275</v>
+        <v>0.6292899228130722</v>
       </c>
       <c r="I18">
-        <v>1.239785268905905</v>
+        <v>0.9492051915955955</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.673973872811644</v>
+        <v>4.472944896984927</v>
       </c>
       <c r="L18">
-        <v>0.1407583663097043</v>
+        <v>0.07514479360120419</v>
       </c>
       <c r="M18">
-        <v>0.4852954283627966</v>
+        <v>0.9828545359173333</v>
       </c>
       <c r="N18">
-        <v>1.43804338302251</v>
+        <v>0.6532693940504117</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1583411859852788</v>
+        <v>0.1250154875432514</v>
       </c>
       <c r="D19">
-        <v>0.0522703448967512</v>
+        <v>0.0358571076154206</v>
       </c>
       <c r="E19">
-        <v>0.1090600115206861</v>
+        <v>0.06784440013240456</v>
       </c>
       <c r="F19">
-        <v>1.290089178047552</v>
+        <v>1.141941372117557</v>
       </c>
       <c r="G19">
-        <v>1.163644152081019</v>
+        <v>1.053149881483719</v>
       </c>
       <c r="H19">
-        <v>1.099784625276897</v>
+        <v>0.6267197107779765</v>
       </c>
       <c r="I19">
-        <v>1.239255862500642</v>
+        <v>0.9436796571460349</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.662956870975052</v>
+        <v>4.433185343812966</v>
       </c>
       <c r="L19">
-        <v>0.1407674014241778</v>
+        <v>0.07486458621430359</v>
       </c>
       <c r="M19">
-        <v>0.4830471437703707</v>
+        <v>0.9742421705707258</v>
       </c>
       <c r="N19">
-        <v>1.439321230593123</v>
+        <v>0.6563874865397885</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1590840148728034</v>
+        <v>0.1287961680333609</v>
       </c>
       <c r="D20">
-        <v>0.05237514664506548</v>
+        <v>0.03610850233175</v>
       </c>
       <c r="E20">
-        <v>0.1092277524049479</v>
+        <v>0.06942742031625926</v>
       </c>
       <c r="F20">
-        <v>1.294494398423694</v>
+        <v>1.175892899615548</v>
       </c>
       <c r="G20">
-        <v>1.167424955546991</v>
+        <v>1.084640154413052</v>
       </c>
       <c r="H20">
-        <v>1.099564876637444</v>
+        <v>0.638406495403018</v>
       </c>
       <c r="I20">
-        <v>1.24169014547752</v>
+        <v>0.9687281911217696</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.712555541775316</v>
+        <v>4.612355608061307</v>
       </c>
       <c r="L20">
-        <v>0.1407311943776435</v>
+        <v>0.07613745550368378</v>
       </c>
       <c r="M20">
-        <v>0.493175616573204</v>
+        <v>1.013066037819968</v>
       </c>
       <c r="N20">
-        <v>1.43360946737954</v>
+        <v>0.6424589886906737</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1616465677135466</v>
+        <v>0.1416833673745117</v>
       </c>
       <c r="D21">
-        <v>0.05273000986364451</v>
+        <v>0.03696329759820216</v>
       </c>
       <c r="E21">
-        <v>0.1098463848604716</v>
+        <v>0.07489817194444015</v>
       </c>
       <c r="F21">
-        <v>1.310307008930351</v>
+        <v>1.294059086858823</v>
       </c>
       <c r="G21">
-        <v>1.181120499569289</v>
+        <v>1.194705843627702</v>
       </c>
       <c r="H21">
-        <v>1.099525605968495</v>
+        <v>0.6799004908459381</v>
       </c>
       <c r="I21">
-        <v>1.250778599126718</v>
+        <v>1.056286483894297</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.879562581944697</v>
+        <v>5.219108091707994</v>
       </c>
       <c r="L21">
-        <v>0.1406874836684651</v>
+        <v>0.08063337843379514</v>
       </c>
       <c r="M21">
-        <v>0.5273965773906895</v>
+        <v>1.144788663723261</v>
       </c>
       <c r="N21">
-        <v>1.415096214829717</v>
+        <v>0.59753204842049</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1633708838963202</v>
+        <v>0.1502570459640822</v>
       </c>
       <c r="D22">
-        <v>0.05296392450733478</v>
+        <v>0.03753038905225026</v>
       </c>
       <c r="E22">
-        <v>0.1102916876333282</v>
+        <v>0.07859698285872341</v>
       </c>
       <c r="F22">
-        <v>1.32139779361458</v>
+        <v>1.374650274011316</v>
       </c>
       <c r="G22">
-        <v>1.190814149516086</v>
+        <v>1.270146279678357</v>
       </c>
       <c r="H22">
-        <v>1.10002178554717</v>
+        <v>0.7088313584337982</v>
       </c>
       <c r="I22">
-        <v>1.257398097081349</v>
+        <v>1.116294502229479</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.98897643798847</v>
+        <v>5.619755095301741</v>
       </c>
       <c r="L22">
-        <v>0.1407170430192153</v>
+        <v>0.08374908801206971</v>
       </c>
       <c r="M22">
-        <v>0.5499031005777795</v>
+        <v>1.231962203898632</v>
       </c>
       <c r="N22">
-        <v>1.403502128780033</v>
+        <v>0.5696455267350515</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1624460644083285</v>
+        <v>0.1456663725293055</v>
       </c>
       <c r="D23">
-        <v>0.05283890110720435</v>
+        <v>0.03722688920139561</v>
       </c>
       <c r="E23">
-        <v>0.110050272786669</v>
+        <v>0.07661089498924767</v>
       </c>
       <c r="F23">
-        <v>1.315409079803146</v>
+        <v>1.331308578219279</v>
       </c>
       <c r="G23">
-        <v>1.185572301732748</v>
+        <v>1.229539333077611</v>
       </c>
       <c r="H23">
-        <v>1.099709162645553</v>
+        <v>0.6932143935976001</v>
       </c>
       <c r="I23">
-        <v>1.253802845052093</v>
+        <v>1.083995530858758</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.930556261825757</v>
+        <v>5.405510256543607</v>
       </c>
       <c r="L23">
-        <v>0.1406959456117818</v>
+        <v>0.08206900865681632</v>
       </c>
       <c r="M23">
-        <v>0.5378780924832256</v>
+        <v>1.185327902155436</v>
       </c>
       <c r="N23">
-        <v>1.40964383696744</v>
+        <v>0.5843885778196309</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1590429706102157</v>
+        <v>0.1285878894701398</v>
       </c>
       <c r="D24">
-        <v>0.05236938097368338</v>
+        <v>0.03609466081642765</v>
       </c>
       <c r="E24">
-        <v>0.1092183336995731</v>
+        <v>0.06933994096031171</v>
       </c>
       <c r="F24">
-        <v>1.294248684692846</v>
+        <v>1.174013800102188</v>
       </c>
       <c r="G24">
-        <v>1.167213605577899</v>
+        <v>1.082895621567303</v>
       </c>
       <c r="H24">
-        <v>1.0995743164071</v>
+        <v>0.6377566991120602</v>
       </c>
       <c r="I24">
-        <v>1.241553048747306</v>
+        <v>0.9673404677939885</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.70983044414487</v>
+        <v>4.602499835260573</v>
       </c>
       <c r="L24">
-        <v>0.1407328895753537</v>
+        <v>0.07606676466092921</v>
       </c>
       <c r="M24">
-        <v>0.4926186894122253</v>
+        <v>1.010929520743474</v>
       </c>
       <c r="N24">
-        <v>1.433920582487779</v>
+        <v>0.6432170347965602</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1555862212261303</v>
+        <v>0.110729868830262</v>
       </c>
       <c r="D25">
-        <v>0.05187182594049489</v>
+        <v>0.03490423711177471</v>
       </c>
       <c r="E25">
-        <v>0.1084971694954042</v>
+        <v>0.06196352419128814</v>
       </c>
       <c r="F25">
-        <v>1.274655855017969</v>
+        <v>1.01682877826741</v>
       </c>
       <c r="G25">
-        <v>1.150580113386425</v>
+        <v>0.9377063582652596</v>
       </c>
       <c r="H25">
-        <v>1.101663945160368</v>
+        <v>0.5847665184784034</v>
       </c>
       <c r="I25">
-        <v>1.231246421502377</v>
+        <v>0.8518889831035281</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.472911236598691</v>
+        <v>3.750488921364138</v>
       </c>
       <c r="L25">
-        <v>0.1410220581960431</v>
+        <v>0.07026632065334937</v>
       </c>
       <c r="M25">
-        <v>0.4444112083560015</v>
+        <v>0.8266480201131046</v>
       </c>
       <c r="N25">
-        <v>1.462274041405969</v>
+        <v>0.7124986995156348</v>
       </c>
       <c r="O25">
         <v>0</v>
